--- a/biology/Zoologie/Exposition_canine/Exposition_canine.xlsx
+++ b/biology/Zoologie/Exposition_canine/Exposition_canine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une exposition canine, ou concours canin, est un concours de beauté durant lequel éleveurs et particuliers viennent soumettre leurs chiens de race aux critiques d'un jury.
 À l'inverse d'une épreuve de travail, qui juge les aptitudes du chien (chien de berger, de chasse, agility, etc.), l'exposition canine juge les qualités esthétiques d'un chien, et sa conformité au standard de sa race.
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La première exposition canine au monde a eu lieu en 1847 en Belgique ; elle présentait la race des Pointer.
 </t>
@@ -544,7 +558,9 @@
           <t>Les 8 sections d'engagement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe 8 classes pour engager son chien :
 • Classe INTERMÉDIAIRE (de 15 à 24 mois, obligatoire)
@@ -590,7 +606,9 @@
           <t>Comment se déroule le jugement ?</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chiens sont jugés par race, par variété, par sexe et par classe.
 Le juge examine chaque chien individuellement en statique (immobile) et aux allures (en mouvement) puis il fait le classement entre les concurrents en les comparant les uns aux autres.
@@ -624,10 +642,12 @@
           <t>Utilité des expositions canine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que plusieurs ne voient pas l'utilité des concours de conformation, il est important de connaître ses avantages. Il est pensé par plusieurs que ce type de concours canin n'a pour seul but de comparer la beauté du chien. Cependant, la première utilité de concours de conformation est le fait de faire état de la morphologie du chien afin qu'il corresponde le plus possible au standard de sa race. Ceci permet de préserver et maintenir le standard de la race, comme préalablement établi. Bien que l'élément physique de la morphologie est primordial, le comportement, ainsi que le tempérament sont aussi pris en compte. En effet, le standard des races ne s'arrête pas uniquement à l'aspect physique, mais le comportement est aussi important. Chaque race de chien a été élevée afin qu'elle effectue un travail spécifique, ou pour qu'elle se comporte d'une certaine manière. Il existe sept groupes de races différents et chaque chien est classé au sein d'un de ceux-ci.
-Certains préjugés quant aux problèmes de santé spécifiques aux chiens de race persistent. Certains pensent que les chiens participants aux concours de conformation font partie des raisons pour lesquelles les maladies spécifiques aux races sont aussi présentes. Cependant, selon la littérature scientifique, ainsi que plusieurs spécialistes tels que Steve Dean, un chirurgien vétérinaire et le président de The Kennel Club, pense totalement le contraire. C'est-à-dire qu'ils croient que les chiens participant aux concours de conformation font partie des programmes d'élevage qui travaillent à la diminution des maladies génétiques héréditaires spécifiques aux chiens de races pures[1].
+Certains préjugés quant aux problèmes de santé spécifiques aux chiens de race persistent. Certains pensent que les chiens participants aux concours de conformation font partie des raisons pour lesquelles les maladies spécifiques aux races sont aussi présentes. Cependant, selon la littérature scientifique, ainsi que plusieurs spécialistes tels que Steve Dean, un chirurgien vétérinaire et le président de The Kennel Club, pense totalement le contraire. C'est-à-dire qu'ils croient que les chiens participant aux concours de conformation font partie des programmes d'élevage qui travaillent à la diminution des maladies génétiques héréditaires spécifiques aux chiens de races pures.
 </t>
         </is>
       </c>
